--- a/input_sheets/snake_species_ecology_discrete.xlsx
+++ b/input_sheets/snake_species_ecology_discrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riley\Documents\GitHub\snakejaws\input_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D21242-9212-4B4B-92F4-A3FAA7731506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF32F84-A879-4F0D-8D79-F7961BD51516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3930" uniqueCount="1325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1324">
   <si>
     <t>species</t>
   </si>
@@ -3078,9 +3078,6 @@
   </si>
   <si>
     <t>Dendrophidion_dendrophis</t>
-  </si>
-  <si>
-    <t>all Dendrophidion do this, but check back later with real source</t>
   </si>
   <si>
     <t>Drymobius_rhombifer</t>
@@ -4793,8 +4790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F285" sqref="F285"/>
+    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P598" sqref="P598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4822,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -4839,13 +4836,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -4859,13 +4856,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4879,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D4" t="s">
         <v>103</v>
@@ -4888,15 +4885,15 @@
         <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B5" t="s">
         <v>1275</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1276</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>17</v>
@@ -4920,7 +4917,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4940,7 +4937,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -4960,7 +4957,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -4986,15 +4983,15 @@
         <v>792</v>
       </c>
       <c r="F9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B10" t="s">
         <v>1271</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1272</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -5003,10 +5000,10 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,10 +5020,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F11" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5043,10 +5040,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F12" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5063,10 +5060,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,10 +5080,10 @@
         <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F14" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,10 +5100,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F15" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,10 +5120,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F16" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5143,10 +5140,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F17" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,7 +5160,7 @@
         <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,10 +5177,10 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,10 +5197,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5220,10 +5217,10 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F21" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5240,10 +5237,10 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F22" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,10 +5257,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F23" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5277,10 +5274,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F24" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,10 +5294,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F25" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,10 +5314,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F26" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,10 +5334,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F27" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5357,10 +5354,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F28" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,10 +5374,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F29" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5397,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5417,10 +5414,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F31" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,10 +5434,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F32" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,10 +5454,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F33" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5477,10 +5474,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5497,10 +5494,10 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F35" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,10 +5514,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,10 +5534,10 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,10 +5554,10 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F38" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5577,10 +5574,10 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F39" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,10 +5594,10 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F40" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,10 +5614,10 @@
         <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F41" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,10 +5634,10 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,10 +5654,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F43" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,10 +5674,10 @@
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F44" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,10 +5694,10 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F45" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,10 +5714,10 @@
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F46" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5737,10 +5734,10 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F47" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,10 +5754,10 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F48" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,10 +5774,10 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F49" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5797,10 +5794,10 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F50" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5817,10 +5814,10 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F51" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5837,10 +5834,10 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F52" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5857,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F53" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5877,10 +5874,10 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F54" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,10 +5894,10 @@
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F55" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,10 +5914,10 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F56" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5937,15 +5934,15 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F57" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B58" t="s">
         <v>97</v>
@@ -5957,10 +5954,10 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F58" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,10 +5974,10 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F59" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,10 +5991,10 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F60" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6034,10 +6031,10 @@
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="F62" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -6225,7 +6222,7 @@
         <v>126</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D72" t="s">
         <v>161</v>
@@ -6245,13 +6242,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D73" t="s">
         <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>128</v>
@@ -6262,7 +6259,7 @@
         <v>129</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D74" t="s">
         <v>103</v>
@@ -6282,7 +6279,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D75" t="s">
         <v>103</v>
@@ -6302,7 +6299,7 @@
         <v>133</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -6322,7 +6319,7 @@
         <v>133</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -6379,7 +6376,7 @@
         <v>141</v>
       </c>
       <c r="D80" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E80" t="s">
         <v>24</v>
@@ -6408,7 +6405,7 @@
         <v>151</v>
       </c>
       <c r="G81" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -6431,7 +6428,7 @@
         <v>154</v>
       </c>
       <c r="G82" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -6454,7 +6451,7 @@
         <v>154</v>
       </c>
       <c r="G83" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -6488,7 +6485,7 @@
         <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E85" t="s">
         <v>24</v>
@@ -6497,7 +6494,7 @@
         <v>151</v>
       </c>
       <c r="G85" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -6554,10 +6551,10 @@
         <v>161</v>
       </c>
       <c r="E88" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F88" t="s">
         <v>1187</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6574,7 +6571,7 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F89" t="s">
         <v>151</v>
@@ -6617,7 +6614,7 @@
         <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6700,7 +6697,7 @@
         <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6751,7 +6748,7 @@
         <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F98" t="s">
         <v>154</v>
@@ -6771,7 +6768,7 @@
         <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F99" t="s">
         <v>154</v>
@@ -6794,7 +6791,7 @@
         <v>161</v>
       </c>
       <c r="F100" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -6845,7 +6842,7 @@
         <v>30</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -6862,7 +6859,7 @@
         <v>186</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -6882,7 +6879,7 @@
         <v>188</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -6899,7 +6896,7 @@
         <v>189</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -6916,7 +6913,7 @@
         <v>190</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -6933,7 +6930,7 @@
         <v>191</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -6950,7 +6947,7 @@
         <v>192</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -6999,7 +6996,7 @@
         <v>161</v>
       </c>
       <c r="E111" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F111" t="s">
         <v>138</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>195</v>
@@ -7036,10 +7033,10 @@
         <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="F113" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -7059,7 +7056,7 @@
         <v>153</v>
       </c>
       <c r="F114" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7076,7 +7073,7 @@
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F115" t="s">
         <v>138</v>
@@ -7136,7 +7133,7 @@
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F118" t="s">
         <v>138</v>
@@ -7153,7 +7150,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7204,7 +7201,7 @@
         <v>208</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D122" t="s">
         <v>218</v>
@@ -7227,7 +7224,7 @@
         <v>204</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -7250,7 +7247,7 @@
         <v>133</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -7270,7 +7267,7 @@
         <v>225</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -7290,7 +7287,7 @@
         <v>206</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -7313,7 +7310,7 @@
         <v>206</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D127" t="s">
         <v>103</v>
@@ -7333,7 +7330,7 @@
         <v>231</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D128" t="s">
         <v>103</v>
@@ -7342,10 +7339,10 @@
         <v>104</v>
       </c>
       <c r="F128" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G128" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7356,7 +7353,7 @@
         <v>30</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D129" t="s">
         <v>233</v>
@@ -7376,7 +7373,7 @@
         <v>133</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D130" t="s">
         <v>233</v>
@@ -7393,10 +7390,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D131" t="s">
         <v>218</v>
@@ -7405,7 +7402,7 @@
         <v>218</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7413,7 +7410,7 @@
         <v>236</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D132" t="s">
         <v>218</v>
@@ -7433,7 +7430,7 @@
         <v>237</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D133" t="s">
         <v>218</v>
@@ -7442,7 +7439,7 @@
         <v>218</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -7453,13 +7450,13 @@
         <v>208</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F134" t="s">
         <v>220</v>
@@ -7473,7 +7470,7 @@
         <v>240</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D135" t="s">
         <v>218</v>
@@ -7482,7 +7479,7 @@
         <v>218</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -7493,7 +7490,7 @@
         <v>133</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D136" t="s">
         <v>218</v>
@@ -7513,7 +7510,7 @@
         <v>243</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D137" t="s">
         <v>218</v>
@@ -7522,7 +7519,7 @@
         <v>218</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -7533,7 +7530,7 @@
         <v>30</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D138" t="s">
         <v>218</v>
@@ -7553,7 +7550,7 @@
         <v>133</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D139" t="s">
         <v>218</v>
@@ -7573,7 +7570,7 @@
         <v>55</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D140" t="s">
         <v>161</v>
@@ -7782,7 +7779,7 @@
         <v>592</v>
       </c>
       <c r="F150" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -7833,7 +7830,7 @@
         <v>277</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D153" t="s">
         <v>218</v>
@@ -7842,10 +7839,10 @@
         <v>218</v>
       </c>
       <c r="F153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G153" t="s">
         <v>1303</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7853,13 +7850,13 @@
         <v>278</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F154" t="s">
         <v>279</v>
@@ -7867,7 +7864,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B155" t="s">
         <v>55</v>
@@ -7916,7 +7913,7 @@
         <v>218</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7967,10 +7964,10 @@
         <v>218</v>
       </c>
       <c r="E160" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F160" t="s">
         <v>1107</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -7984,12 +7981,12 @@
         <v>218</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>280</v>
@@ -7998,12 +7995,12 @@
         <v>218</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>280</v>
@@ -8012,7 +8009,7 @@
         <v>218</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8026,7 +8023,7 @@
         <v>218</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8051,7 +8048,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>280</v>
@@ -8060,7 +8057,7 @@
         <v>218</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,7 +8174,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F172" t="s">
         <v>255</v>
@@ -8237,10 +8234,10 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="F175" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8317,7 +8314,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F179" t="s">
         <v>138</v>
@@ -8380,7 +8377,7 @@
         <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F182" t="s">
         <v>324</v>
@@ -8400,7 +8397,7 @@
         <v>104</v>
       </c>
       <c r="F183" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -8437,7 +8434,7 @@
         <v>161</v>
       </c>
       <c r="E185" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F185" t="s">
         <v>331</v>
@@ -8485,7 +8482,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B188" t="s">
         <v>329</v>
@@ -8497,10 +8494,10 @@
         <v>161</v>
       </c>
       <c r="E188" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F188" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -8517,7 +8514,7 @@
         <v>161</v>
       </c>
       <c r="E189" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F189" t="s">
         <v>331</v>
@@ -8545,7 +8542,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B191" t="s">
         <v>329</v>
@@ -8557,15 +8554,15 @@
         <v>161</v>
       </c>
       <c r="E191" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F191" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B192" t="s">
         <v>329</v>
@@ -8577,10 +8574,10 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F192" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8677,7 +8674,7 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -8694,13 +8691,13 @@
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F198" t="s">
         <v>331</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -8717,10 +8714,10 @@
         <v>161</v>
       </c>
       <c r="E199" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F199" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -8754,10 +8751,10 @@
         <v>161</v>
       </c>
       <c r="E201" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F201" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -8814,13 +8811,13 @@
         <v>161</v>
       </c>
       <c r="E204" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F204" t="s">
         <v>321</v>
       </c>
       <c r="G204" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8837,13 +8834,13 @@
         <v>161</v>
       </c>
       <c r="E205" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F205" t="s">
         <v>321</v>
       </c>
       <c r="G205" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8860,13 +8857,13 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F206" t="s">
         <v>331</v>
       </c>
       <c r="G206" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8889,7 +8886,7 @@
         <v>366</v>
       </c>
       <c r="G207" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8912,7 +8909,7 @@
         <v>331</v>
       </c>
       <c r="G208" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8932,7 +8929,7 @@
         <v>365</v>
       </c>
       <c r="F209" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8949,18 +8946,18 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F210" t="s">
         <v>366</v>
       </c>
       <c r="G210" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>280</v>
@@ -8971,7 +8968,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>280</v>
@@ -8982,7 +8979,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>280</v>
@@ -8991,7 +8988,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F213" t="s">
         <v>366</v>
@@ -9017,7 +9014,7 @@
         <v>366</v>
       </c>
       <c r="G214" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -9034,13 +9031,13 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F215" t="s">
         <v>366</v>
       </c>
       <c r="G215" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -9057,13 +9054,13 @@
         <v>383</v>
       </c>
       <c r="E216" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F216" t="s">
         <v>366</v>
       </c>
       <c r="G216" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -9086,7 +9083,7 @@
         <v>331</v>
       </c>
       <c r="G217" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -9103,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F218" t="s">
         <v>331</v>
@@ -9120,10 +9117,10 @@
         <v>383</v>
       </c>
       <c r="E219" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F219" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -9160,7 +9157,7 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F221" t="s">
         <v>314</v>
@@ -9180,13 +9177,13 @@
         <v>383</v>
       </c>
       <c r="E222" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F222" t="s">
         <v>314</v>
       </c>
       <c r="G222" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -9209,7 +9206,7 @@
         <v>314</v>
       </c>
       <c r="G223" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -9226,7 +9223,7 @@
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F224" t="s">
         <v>321</v>
@@ -9246,10 +9243,10 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F225" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -9266,13 +9263,13 @@
         <v>383</v>
       </c>
       <c r="E226" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F226" t="s">
         <v>250</v>
       </c>
       <c r="G226" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -9335,7 +9332,7 @@
         <v>321</v>
       </c>
       <c r="G229" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -9395,10 +9392,10 @@
         <v>383</v>
       </c>
       <c r="E232" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F232" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -9415,7 +9412,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F233" t="s">
         <v>366</v>
@@ -9455,13 +9452,13 @@
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F235" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G235" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -9498,7 +9495,7 @@
         <v>314</v>
       </c>
       <c r="G237" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -9658,7 +9655,7 @@
         <v>7</v>
       </c>
       <c r="E245" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F245" t="s">
         <v>314</v>
@@ -9672,7 +9669,7 @@
         <v>13</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D246" t="s">
         <v>103</v>
@@ -9684,7 +9681,7 @@
         <v>434</v>
       </c>
       <c r="G246" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -9692,16 +9689,16 @@
         <v>435</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D247" t="s">
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F247" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9712,7 +9709,7 @@
         <v>55</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -9815,7 +9812,7 @@
         <v>439</v>
       </c>
       <c r="D253" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E253" t="s">
         <v>449</v>
@@ -9838,10 +9835,10 @@
         <v>9</v>
       </c>
       <c r="E254" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F254" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -9858,7 +9855,7 @@
         <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F255" t="s">
         <v>68</v>
@@ -9958,7 +9955,7 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -9998,7 +9995,7 @@
         <v>463</v>
       </c>
       <c r="F262" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -10018,7 +10015,7 @@
         <v>466</v>
       </c>
       <c r="F263" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -10038,7 +10035,7 @@
         <v>468</v>
       </c>
       <c r="F264" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -10055,7 +10052,7 @@
         <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -10169,10 +10166,10 @@
         <v>161</v>
       </c>
       <c r="E271" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F271" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -10192,7 +10189,7 @@
         <v>480</v>
       </c>
       <c r="F272" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -10212,7 +10209,7 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -10232,7 +10229,7 @@
         <v>161</v>
       </c>
       <c r="F274" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -10246,10 +10243,10 @@
         <v>161</v>
       </c>
       <c r="E275" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F275" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -10269,7 +10266,7 @@
         <v>161</v>
       </c>
       <c r="F276" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -10309,7 +10306,7 @@
         <v>488</v>
       </c>
       <c r="F278" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -10429,7 +10426,7 @@
         <v>492</v>
       </c>
       <c r="F284" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -10449,7 +10446,7 @@
         <v>501</v>
       </c>
       <c r="F285" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -10469,7 +10466,7 @@
         <v>503</v>
       </c>
       <c r="F286" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -10486,7 +10483,7 @@
         <v>216</v>
       </c>
       <c r="F287" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -10500,10 +10497,10 @@
         <v>9</v>
       </c>
       <c r="E288" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F288" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -10517,10 +10514,10 @@
         <v>9</v>
       </c>
       <c r="E289" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F289" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
@@ -10560,7 +10557,7 @@
         <v>508</v>
       </c>
       <c r="F291" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -10574,10 +10571,10 @@
         <v>439</v>
       </c>
       <c r="E292" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F292" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -10597,7 +10594,7 @@
         <v>513</v>
       </c>
       <c r="F293" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -10634,7 +10631,7 @@
         <v>104</v>
       </c>
       <c r="F295" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -10671,7 +10668,7 @@
         <v>104</v>
       </c>
       <c r="F297" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -10711,7 +10708,7 @@
         <v>104</v>
       </c>
       <c r="F299" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
@@ -10728,7 +10725,7 @@
         <v>104</v>
       </c>
       <c r="F300" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -10748,7 +10745,7 @@
         <v>104</v>
       </c>
       <c r="F301" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
@@ -10765,7 +10762,7 @@
         <v>104</v>
       </c>
       <c r="F302" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -10782,7 +10779,7 @@
         <v>104</v>
       </c>
       <c r="F303" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -10879,7 +10876,7 @@
         <v>104</v>
       </c>
       <c r="F308" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -10899,7 +10896,7 @@
         <v>104</v>
       </c>
       <c r="F309" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -10916,7 +10913,7 @@
         <v>104</v>
       </c>
       <c r="F310" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -10933,7 +10930,7 @@
         <v>104</v>
       </c>
       <c r="F311" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -10953,7 +10950,7 @@
         <v>104</v>
       </c>
       <c r="F312" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -10964,13 +10961,13 @@
         <v>439</v>
       </c>
       <c r="D313" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E313" t="s">
         <v>24</v>
       </c>
       <c r="F313" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -10984,13 +10981,13 @@
         <v>103</v>
       </c>
       <c r="E314" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F314" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G314" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
@@ -11004,7 +11001,7 @@
         <v>439</v>
       </c>
       <c r="D315" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E315" t="s">
         <v>18</v>
@@ -11024,7 +11021,7 @@
         <v>439</v>
       </c>
       <c r="D316" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E316" t="s">
         <v>545</v>
@@ -11041,13 +11038,13 @@
         <v>439</v>
       </c>
       <c r="D317" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E317" t="s">
         <v>545</v>
       </c>
       <c r="F317" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -11058,13 +11055,13 @@
         <v>439</v>
       </c>
       <c r="D318" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E318" t="s">
         <v>545</v>
       </c>
       <c r="F318" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -11078,13 +11075,13 @@
         <v>439</v>
       </c>
       <c r="D319" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E319" t="s">
         <v>545</v>
       </c>
       <c r="F319" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -11095,13 +11092,13 @@
         <v>439</v>
       </c>
       <c r="D320" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E320" t="s">
         <v>545</v>
       </c>
       <c r="F320" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -11115,13 +11112,13 @@
         <v>439</v>
       </c>
       <c r="D321" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E321" t="s">
         <v>545</v>
       </c>
       <c r="F321" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -11135,7 +11132,7 @@
         <v>439</v>
       </c>
       <c r="D322" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E322" t="s">
         <v>545</v>
@@ -11155,7 +11152,7 @@
         <v>439</v>
       </c>
       <c r="D323" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E323" t="s">
         <v>545</v>
@@ -11175,16 +11172,16 @@
         <v>439</v>
       </c>
       <c r="D324" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E324" t="s">
         <v>554</v>
       </c>
       <c r="F324" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G324" t="s">
         <v>1183</v>
-      </c>
-      <c r="G324" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -11198,7 +11195,7 @@
         <v>439</v>
       </c>
       <c r="D325" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E325" t="s">
         <v>545</v>
@@ -11218,7 +11215,7 @@
         <v>439</v>
       </c>
       <c r="D326" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E326" t="s">
         <v>545</v>
@@ -11238,7 +11235,7 @@
         <v>439</v>
       </c>
       <c r="D327" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E327" t="s">
         <v>545</v>
@@ -11258,7 +11255,7 @@
         <v>439</v>
       </c>
       <c r="D328" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E328" t="s">
         <v>545</v>
@@ -11275,18 +11272,18 @@
         <v>439</v>
       </c>
       <c r="D329" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E329" t="s">
         <v>545</v>
       </c>
       <c r="F329" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B330" t="s">
         <v>95</v>
@@ -11301,7 +11298,7 @@
         <v>866</v>
       </c>
       <c r="F330" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -11321,7 +11318,7 @@
         <v>563</v>
       </c>
       <c r="F331" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -11346,7 +11343,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B333" t="s">
         <v>64</v>
@@ -11358,10 +11355,10 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="F333" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -11418,7 +11415,7 @@
         <v>7</v>
       </c>
       <c r="E336" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F336" t="s">
         <v>486</v>
@@ -11438,7 +11435,7 @@
         <v>7</v>
       </c>
       <c r="F337" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -11455,7 +11452,7 @@
         <v>7</v>
       </c>
       <c r="E338" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F338" t="s">
         <v>572</v>
@@ -11515,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="E341" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F341" t="s">
         <v>1126</v>
-      </c>
-      <c r="F341" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -11552,7 +11549,7 @@
         <v>439</v>
       </c>
       <c r="D343" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E343" t="s">
         <v>18</v>
@@ -11629,10 +11626,10 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F347" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -11689,7 +11686,7 @@
         <v>9</v>
       </c>
       <c r="E350" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F350" t="s">
         <v>575</v>
@@ -11709,13 +11706,13 @@
         <v>9</v>
       </c>
       <c r="E351" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F351" t="s">
         <v>292</v>
       </c>
       <c r="G351" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -11775,7 +11772,7 @@
         <v>161</v>
       </c>
       <c r="F354" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -11855,7 +11852,7 @@
         <v>604</v>
       </c>
       <c r="F358" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -11869,10 +11866,10 @@
         <v>9</v>
       </c>
       <c r="E359" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F359" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -11909,7 +11906,7 @@
         <v>161</v>
       </c>
       <c r="F361" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -11926,7 +11923,7 @@
         <v>9</v>
       </c>
       <c r="E362" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F362" t="s">
         <v>598</v>
@@ -12032,7 +12029,7 @@
         <v>620</v>
       </c>
       <c r="G367" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -12092,7 +12089,7 @@
         <v>218</v>
       </c>
       <c r="F370" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -12135,7 +12132,7 @@
         <v>629</v>
       </c>
       <c r="G372" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -12152,7 +12149,7 @@
         <v>9</v>
       </c>
       <c r="E373" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="F373" t="s">
         <v>631</v>
@@ -12486,10 +12483,10 @@
         <v>9</v>
       </c>
       <c r="E390" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F390" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -12550,7 +12547,7 @@
         <v>9</v>
       </c>
       <c r="E393" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F393" t="s">
         <v>575</v>
@@ -12570,7 +12567,7 @@
         <v>9</v>
       </c>
       <c r="E394" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F394" t="s">
         <v>575</v>
@@ -12590,13 +12587,13 @@
         <v>161</v>
       </c>
       <c r="E395" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F395" t="s">
         <v>675</v>
       </c>
       <c r="G395" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -12613,13 +12610,13 @@
         <v>161</v>
       </c>
       <c r="E396" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F396" t="s">
         <v>675</v>
       </c>
       <c r="G396" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -12636,13 +12633,13 @@
         <v>161</v>
       </c>
       <c r="E397" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F397" t="s">
         <v>675</v>
       </c>
       <c r="G397" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -12665,7 +12662,7 @@
         <v>675</v>
       </c>
       <c r="G398" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -12682,10 +12679,10 @@
         <v>9</v>
       </c>
       <c r="E399" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F399" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -12702,10 +12699,10 @@
         <v>9</v>
       </c>
       <c r="E400" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F400" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -12742,13 +12739,13 @@
         <v>161</v>
       </c>
       <c r="E402" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F402" t="s">
         <v>675</v>
       </c>
       <c r="G402" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -12771,7 +12768,7 @@
         <v>675</v>
       </c>
       <c r="G403" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -12788,13 +12785,13 @@
         <v>161</v>
       </c>
       <c r="E404" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F404" t="s">
         <v>675</v>
       </c>
       <c r="G404" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -12811,13 +12808,13 @@
         <v>9</v>
       </c>
       <c r="E405" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F405" t="s">
         <v>675</v>
       </c>
       <c r="G405" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -12834,13 +12831,13 @@
         <v>161</v>
       </c>
       <c r="E406" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F406" t="s">
         <v>675</v>
       </c>
       <c r="G406" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -12857,13 +12854,13 @@
         <v>161</v>
       </c>
       <c r="E407" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F407" t="s">
         <v>675</v>
       </c>
       <c r="G407" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -12877,7 +12874,7 @@
         <v>439</v>
       </c>
       <c r="E408" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F408" t="s">
         <v>692</v>
@@ -12897,7 +12894,7 @@
         <v>9</v>
       </c>
       <c r="E409" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F409" t="s">
         <v>675</v>
@@ -12969,7 +12966,7 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -12989,7 +12986,7 @@
         <v>698</v>
       </c>
       <c r="F413" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -13009,7 +13006,7 @@
         <v>698</v>
       </c>
       <c r="F414" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -13026,7 +13023,7 @@
         <v>161</v>
       </c>
       <c r="E415" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F415" t="s">
         <v>699</v>
@@ -13306,10 +13303,10 @@
         <v>383</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="F429" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -13329,7 +13326,7 @@
         <v>503</v>
       </c>
       <c r="F430" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -13352,7 +13349,7 @@
         <v>675</v>
       </c>
       <c r="G431" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13375,7 +13372,7 @@
         <v>675</v>
       </c>
       <c r="G432" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -13409,13 +13406,13 @@
         <v>218</v>
       </c>
       <c r="E434" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F434" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -13435,7 +13432,7 @@
         <v>218</v>
       </c>
       <c r="F435" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -13532,10 +13529,10 @@
         <v>9</v>
       </c>
       <c r="E440" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F440" t="s">
         <v>1152</v>
-      </c>
-      <c r="F440" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -13552,7 +13549,7 @@
         <v>9</v>
       </c>
       <c r="E441" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F441" t="s">
         <v>135</v>
@@ -13592,13 +13589,13 @@
         <v>9</v>
       </c>
       <c r="E443" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F443" t="s">
         <v>314</v>
       </c>
       <c r="G443" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -13615,7 +13612,7 @@
         <v>7</v>
       </c>
       <c r="E444" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F444" t="s">
         <v>250</v>
@@ -13635,7 +13632,7 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -13672,7 +13669,7 @@
         <v>9</v>
       </c>
       <c r="E447" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F447" t="s">
         <v>749</v>
@@ -13695,7 +13692,7 @@
         <v>103</v>
       </c>
       <c r="E448" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F448" t="s">
         <v>752</v>
@@ -13715,10 +13712,10 @@
         <v>103</v>
       </c>
       <c r="E449" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F449" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -13735,13 +13732,13 @@
         <v>383</v>
       </c>
       <c r="E450" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F450" t="s">
         <v>14</v>
       </c>
       <c r="G450" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -13918,7 +13915,7 @@
         <v>9</v>
       </c>
       <c r="E459" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F459" t="s">
         <v>68</v>
@@ -14015,13 +14012,13 @@
         <v>103</v>
       </c>
       <c r="E464" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="F464" t="s">
         <v>68</v>
       </c>
       <c r="G464" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -14058,7 +14055,7 @@
         <v>9</v>
       </c>
       <c r="E466" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F466" t="s">
         <v>68</v>
@@ -14115,7 +14112,7 @@
         <v>731</v>
       </c>
       <c r="D469" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E469" t="s">
         <v>781</v>
@@ -14138,7 +14135,7 @@
         <v>731</v>
       </c>
       <c r="D470" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E470" t="s">
         <v>784</v>
@@ -14244,10 +14241,10 @@
         <v>9</v>
       </c>
       <c r="E475" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F475" t="s">
         <v>1233</v>
-      </c>
-      <c r="F475" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -14284,7 +14281,7 @@
         <v>9</v>
       </c>
       <c r="E477" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F477" t="s">
         <v>788</v>
@@ -14327,7 +14324,7 @@
         <v>9</v>
       </c>
       <c r="E479" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F479" t="s">
         <v>788</v>
@@ -14347,7 +14344,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F480" t="s">
         <v>788</v>
@@ -14424,7 +14421,7 @@
         <v>731</v>
       </c>
       <c r="D484" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E484" t="s">
         <v>807</v>
@@ -14433,7 +14430,7 @@
         <v>788</v>
       </c>
       <c r="G484" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -14470,7 +14467,7 @@
         <v>9</v>
       </c>
       <c r="E486" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F486" t="s">
         <v>788</v>
@@ -14510,7 +14507,7 @@
         <v>9</v>
       </c>
       <c r="E488" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F488" t="s">
         <v>788</v>
@@ -14550,7 +14547,7 @@
         <v>104</v>
       </c>
       <c r="F490" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -14564,13 +14561,13 @@
         <v>9</v>
       </c>
       <c r="E491" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F491" t="s">
         <v>788</v>
       </c>
       <c r="G491" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -14587,13 +14584,13 @@
         <v>9</v>
       </c>
       <c r="E492" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F492" t="s">
         <v>788</v>
       </c>
       <c r="G492" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -14650,7 +14647,7 @@
         <v>9</v>
       </c>
       <c r="E495" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F495" t="s">
         <v>788</v>
@@ -14673,7 +14670,7 @@
         <v>9</v>
       </c>
       <c r="E496" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F496" t="s">
         <v>788</v>
@@ -14693,10 +14690,10 @@
         <v>9</v>
       </c>
       <c r="E497" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F497" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -14710,10 +14707,10 @@
         <v>9</v>
       </c>
       <c r="E498" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="F498" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -14733,7 +14730,7 @@
         <v>828</v>
       </c>
       <c r="F499" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -14790,7 +14787,7 @@
         <v>9</v>
       </c>
       <c r="E502" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F502" t="s">
         <v>148</v>
@@ -14816,7 +14813,7 @@
         <v>148</v>
       </c>
       <c r="G503" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -14870,7 +14867,7 @@
         <v>9</v>
       </c>
       <c r="E506" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F506" t="s">
         <v>14</v>
@@ -14890,7 +14887,7 @@
         <v>161</v>
       </c>
       <c r="E507" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F507" t="s">
         <v>250</v>
@@ -15027,7 +15024,7 @@
         <v>161</v>
       </c>
       <c r="E514" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F514" t="s">
         <v>250</v>
@@ -15067,7 +15064,7 @@
         <v>202</v>
       </c>
       <c r="F516" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -15104,7 +15101,7 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
@@ -15141,7 +15138,7 @@
         <v>161</v>
       </c>
       <c r="F520" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
@@ -15218,7 +15215,7 @@
         <v>9</v>
       </c>
       <c r="E524" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F524" t="s">
         <v>868</v>
@@ -15298,7 +15295,7 @@
         <v>680</v>
       </c>
       <c r="F528" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -15312,10 +15309,10 @@
         <v>233</v>
       </c>
       <c r="E529" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -15375,7 +15372,7 @@
         <v>161</v>
       </c>
       <c r="F532" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -15552,7 +15549,7 @@
         <v>646</v>
       </c>
       <c r="F541" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
@@ -15746,7 +15743,7 @@
         <v>9</v>
       </c>
       <c r="E551" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="F551" t="s">
         <v>935</v>
@@ -15957,10 +15954,10 @@
         <v>9</v>
       </c>
       <c r="E562" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F562" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -16074,10 +16071,10 @@
         <v>9</v>
       </c>
       <c r="E568" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F568" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -16094,10 +16091,10 @@
         <v>9</v>
       </c>
       <c r="E569" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F569" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -16134,7 +16131,7 @@
         <v>161</v>
       </c>
       <c r="E571" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F571" t="s">
         <v>749</v>
@@ -16251,10 +16248,10 @@
         <v>9</v>
       </c>
       <c r="E577" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F577" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -16271,7 +16268,7 @@
         <v>9</v>
       </c>
       <c r="E578" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F578" t="s">
         <v>68</v>
@@ -16291,7 +16288,7 @@
         <v>9</v>
       </c>
       <c r="E579" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F579" t="s">
         <v>519</v>
@@ -16368,10 +16365,10 @@
         <v>9</v>
       </c>
       <c r="E583" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F583" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -16528,13 +16525,13 @@
         <v>218</v>
       </c>
       <c r="E591" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F591" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G591" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="592" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16551,7 +16548,7 @@
         <v>9</v>
       </c>
       <c r="E592" s="9" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F592" s="9" t="s">
         <v>68</v>
@@ -16571,7 +16568,7 @@
         <v>9</v>
       </c>
       <c r="E593" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F593" s="9" t="s">
         <v>68</v>
@@ -16591,7 +16588,7 @@
         <v>161</v>
       </c>
       <c r="E594" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F594" t="s">
         <v>68</v>
@@ -16614,7 +16611,7 @@
         <v>161</v>
       </c>
       <c r="E595" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>992</v>
@@ -16631,7 +16628,7 @@
         <v>161</v>
       </c>
       <c r="E596" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>992</v>
@@ -16651,7 +16648,7 @@
         <v>161</v>
       </c>
       <c r="E597" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>992</v>
@@ -16672,10 +16669,10 @@
         <v>9</v>
       </c>
       <c r="E598" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F598" t="s">
         <v>1283</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1284</v>
       </c>
       <c r="G598" s="2"/>
     </row>
@@ -16690,10 +16687,10 @@
         <v>9</v>
       </c>
       <c r="E599" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F599" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -16710,7 +16707,7 @@
         <v>1006</v>
       </c>
       <c r="F600" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
@@ -16764,10 +16761,10 @@
         <v>233</v>
       </c>
       <c r="E603" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F603" t="s">
         <v>1224</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -16821,10 +16818,10 @@
         <v>9</v>
       </c>
       <c r="E606" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F606" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -16841,7 +16838,7 @@
         <v>10</v>
       </c>
       <c r="F607" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -16861,7 +16858,7 @@
         <v>10</v>
       </c>
       <c r="F608" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
@@ -16881,15 +16878,12 @@
         <v>10</v>
       </c>
       <c r="F609" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G609" t="s">
-        <v>1014</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B610" t="s">
         <v>95</v>
@@ -16904,12 +16898,12 @@
         <v>10</v>
       </c>
       <c r="F610" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C611" s="6" t="s">
         <v>840</v>
@@ -16921,15 +16915,15 @@
         <v>10</v>
       </c>
       <c r="F611" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G611" t="s">
         <v>1119</v>
-      </c>
-      <c r="G611" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C612" s="6" t="s">
         <v>840</v>
@@ -16938,15 +16932,15 @@
         <v>9</v>
       </c>
       <c r="E612" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F612" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B613" t="s">
         <v>95</v>
@@ -16958,15 +16952,15 @@
         <v>161</v>
       </c>
       <c r="E613" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F613" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B614" t="s">
         <v>95</v>
@@ -16981,12 +16975,12 @@
         <v>857</v>
       </c>
       <c r="F614" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C615" s="6" t="s">
         <v>840</v>
@@ -16998,12 +16992,12 @@
         <v>10</v>
       </c>
       <c r="F615" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C616" s="6" t="s">
         <v>840</v>
@@ -17012,15 +17006,15 @@
         <v>9</v>
       </c>
       <c r="E616" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F616" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C617" s="6" t="s">
         <v>840</v>
@@ -17029,15 +17023,15 @@
         <v>9</v>
       </c>
       <c r="E617" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F617" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B618" t="s">
         <v>95</v>
@@ -17052,12 +17046,12 @@
         <v>10</v>
       </c>
       <c r="F618" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B619" t="s">
         <v>95</v>
@@ -17072,12 +17066,12 @@
         <v>10</v>
       </c>
       <c r="F619" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B620" t="s">
         <v>97</v>
@@ -17089,7 +17083,7 @@
         <v>9</v>
       </c>
       <c r="E620" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F620" t="s">
         <v>620</v>
@@ -17097,7 +17091,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B621" t="s">
         <v>95</v>
@@ -17109,15 +17103,15 @@
         <v>9</v>
       </c>
       <c r="E621" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F621" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B622" t="s">
         <v>64</v>
@@ -17129,15 +17123,15 @@
         <v>9</v>
       </c>
       <c r="E622" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F622" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C623" s="6" t="s">
         <v>840</v>
@@ -17146,15 +17140,15 @@
         <v>9</v>
       </c>
       <c r="E623" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F623" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C624" s="6" t="s">
         <v>840</v>
@@ -17163,18 +17157,18 @@
         <v>9</v>
       </c>
       <c r="E624" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F624" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B625" t="s">
         <v>1034</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1035</v>
       </c>
       <c r="C625" s="6" t="s">
         <v>840</v>
@@ -17183,18 +17177,18 @@
         <v>9</v>
       </c>
       <c r="E625" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F625" t="s">
         <v>486</v>
       </c>
       <c r="G625" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B626" t="s">
         <v>64</v>
@@ -17206,15 +17200,15 @@
         <v>161</v>
       </c>
       <c r="E626" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F626" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>840</v>
@@ -17226,12 +17220,12 @@
         <v>592</v>
       </c>
       <c r="F627" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B628" t="s">
         <v>64</v>
@@ -17243,15 +17237,15 @@
         <v>161</v>
       </c>
       <c r="E628" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F628" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C629" s="6" t="s">
         <v>840</v>
@@ -17263,12 +17257,12 @@
         <v>10</v>
       </c>
       <c r="F629" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B630" t="s">
         <v>97</v>
@@ -17288,7 +17282,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B631" t="s">
         <v>64</v>
@@ -17300,15 +17294,15 @@
         <v>9</v>
       </c>
       <c r="E631" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F631" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C632" s="6" t="s">
         <v>840</v>
@@ -17320,12 +17314,12 @@
         <v>161</v>
       </c>
       <c r="F632" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C633" s="6" t="s">
         <v>840</v>
@@ -17337,12 +17331,12 @@
         <v>161</v>
       </c>
       <c r="F633" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B634" t="s">
         <v>64</v>
@@ -17354,15 +17348,15 @@
         <v>161</v>
       </c>
       <c r="E634" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F634" t="s">
         <v>1050</v>
-      </c>
-      <c r="F634" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B635" t="s">
         <v>75</v>
@@ -17382,7 +17376,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C636" s="6" t="s">
         <v>840</v>
@@ -17394,12 +17388,12 @@
         <v>161</v>
       </c>
       <c r="F636" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B637" t="s">
         <v>75</v>
@@ -17419,10 +17413,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B638" t="s">
         <v>1055</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1056</v>
       </c>
       <c r="C638" s="6" t="s">
         <v>840</v>
@@ -17439,10 +17433,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B639" t="s">
         <v>1057</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1058</v>
       </c>
       <c r="C639" s="6" t="s">
         <v>840</v>
@@ -17459,7 +17453,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C640" s="6" t="s">
         <v>840</v>
@@ -17471,12 +17465,12 @@
         <v>161</v>
       </c>
       <c r="F640" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C641" s="6" t="s">
         <v>840</v>
@@ -17488,12 +17482,12 @@
         <v>153</v>
       </c>
       <c r="F641" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C642" s="6" t="s">
         <v>840</v>
@@ -17502,15 +17496,15 @@
         <v>9</v>
       </c>
       <c r="E642" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F642" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B643" t="s">
         <v>80</v>
@@ -17530,7 +17524,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B644" t="s">
         <v>64</v>
@@ -17545,12 +17539,12 @@
         <v>234</v>
       </c>
       <c r="F644" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B645" t="s">
         <v>625</v>
@@ -17565,12 +17559,12 @@
         <v>234</v>
       </c>
       <c r="F645" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C646" s="6" t="s">
         <v>840</v>
@@ -17581,7 +17575,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C647" s="6" t="s">
         <v>840</v>
@@ -17592,7 +17586,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B648" t="s">
         <v>70</v>
@@ -17604,7 +17598,7 @@
         <v>233</v>
       </c>
       <c r="E648" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F648" t="s">
         <v>68</v>
@@ -17612,7 +17606,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C649" s="6" t="s">
         <v>840</v>
@@ -17623,7 +17617,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C650" s="6" t="s">
         <v>840</v>
@@ -17634,7 +17628,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C651" s="6" t="s">
         <v>840</v>
@@ -17645,7 +17639,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C652" s="6" t="s">
         <v>840</v>
@@ -17656,7 +17650,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C653" s="6" t="s">
         <v>840</v>
@@ -17667,7 +17661,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B654" t="s">
         <v>64</v>
@@ -17679,15 +17673,15 @@
         <v>233</v>
       </c>
       <c r="E654" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F654" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B655" t="s">
         <v>64</v>
@@ -17699,7 +17693,7 @@
         <v>233</v>
       </c>
       <c r="E655" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F655" t="s">
         <v>68</v>
@@ -17707,7 +17701,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C656" s="6" t="s">
         <v>840</v>
@@ -17718,7 +17712,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B657" t="s">
         <v>75</v>
@@ -17730,7 +17724,7 @@
         <v>233</v>
       </c>
       <c r="E657" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F657" t="s">
         <v>68</v>
@@ -17738,7 +17732,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C658" s="6" t="s">
         <v>840</v>
@@ -17749,7 +17743,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B659" t="s">
         <v>75</v>
@@ -17761,7 +17755,7 @@
         <v>233</v>
       </c>
       <c r="E659" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F659" t="s">
         <v>68</v>
@@ -17769,7 +17763,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C660" s="6" t="s">
         <v>840</v>
@@ -17778,15 +17772,15 @@
         <v>233</v>
       </c>
       <c r="E660" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F660" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B661" t="s">
         <v>64</v>
@@ -17798,15 +17792,15 @@
         <v>233</v>
       </c>
       <c r="E661" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F661" t="s">
         <v>1084</v>
-      </c>
-      <c r="F661" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C662" s="6" t="s">
         <v>840</v>
@@ -17815,15 +17809,15 @@
         <v>233</v>
       </c>
       <c r="E662" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F662" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B663" t="s">
         <v>64</v>
@@ -17835,7 +17829,7 @@
         <v>233</v>
       </c>
       <c r="E663" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F663" t="s">
         <v>493</v>
@@ -17843,7 +17837,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B664" t="s">
         <v>64</v>
@@ -17855,7 +17849,7 @@
         <v>233</v>
       </c>
       <c r="E664" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F664" t="s">
         <v>493</v>
@@ -17863,7 +17857,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B665" t="s">
         <v>75</v>
@@ -17875,7 +17869,7 @@
         <v>233</v>
       </c>
       <c r="E665" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F665" t="s">
         <v>68</v>
@@ -17883,7 +17877,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C666" s="6" t="s">
         <v>840</v>
@@ -17892,15 +17886,15 @@
         <v>233</v>
       </c>
       <c r="E666" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F666" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B667" t="s">
         <v>75</v>
@@ -17912,7 +17906,7 @@
         <v>233</v>
       </c>
       <c r="E667" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F667" t="s">
         <v>68</v>
@@ -17920,7 +17914,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B668" t="s">
         <v>75</v>
@@ -17932,7 +17926,7 @@
         <v>233</v>
       </c>
       <c r="E668" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F668" t="s">
         <v>68</v>

--- a/input_sheets/snake_species_ecology_discrete.xlsx
+++ b/input_sheets/snake_species_ecology_discrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riley\Documents\GitHub\snakejaws\input_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF32F84-A879-4F0D-8D79-F7961BD51516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BF159B-E2CA-4094-ABA4-604C0B7E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="1323">
   <si>
     <t>species</t>
   </si>
@@ -3649,9 +3649,6 @@
   </si>
   <si>
     <t>https://www.biodiversitylibrary.org/page/31572111#page/232/mode/1up</t>
-  </si>
-  <si>
-    <t>sources say it is opistho but fangs hard to see but they are there I think</t>
   </si>
   <si>
     <t>https://teses.usp.br/teses/disponiveis/38/38131/tde-07072016-132811/publico/HurtadoGomez_Completa.pdf</t>
@@ -4790,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A595" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P598" sqref="P598"/>
+    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G372" sqref="G372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4819,7 +4816,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -4842,7 +4839,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -4885,15 +4882,15 @@
         <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B5" t="s">
         <v>1274</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1275</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>17</v>
@@ -4983,15 +4980,15 @@
         <v>792</v>
       </c>
       <c r="F9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B10" t="s">
         <v>1270</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1271</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>28</v>
@@ -5000,10 +4997,10 @@
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F10" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5023,7 +5020,7 @@
         <v>1105</v>
       </c>
       <c r="F11" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5043,7 +5040,7 @@
         <v>1105</v>
       </c>
       <c r="F12" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5063,7 +5060,7 @@
         <v>1105</v>
       </c>
       <c r="F13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,7 +5080,7 @@
         <v>1105</v>
       </c>
       <c r="F14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5103,7 +5100,7 @@
         <v>1105</v>
       </c>
       <c r="F15" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5123,7 +5120,7 @@
         <v>1105</v>
       </c>
       <c r="F16" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5140,10 +5137,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,7 +5157,7 @@
         <v>271</v>
       </c>
       <c r="F18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5180,7 +5177,7 @@
         <v>1105</v>
       </c>
       <c r="F19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,7 +5197,7 @@
         <v>1105</v>
       </c>
       <c r="F20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5220,7 +5217,7 @@
         <v>1105</v>
       </c>
       <c r="F21" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5240,7 +5237,7 @@
         <v>1105</v>
       </c>
       <c r="F22" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,7 +5257,7 @@
         <v>1105</v>
       </c>
       <c r="F23" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5274,10 +5271,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F24" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5297,7 +5294,7 @@
         <v>1105</v>
       </c>
       <c r="F25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5317,7 +5314,7 @@
         <v>1105</v>
       </c>
       <c r="F26" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5337,7 +5334,7 @@
         <v>1105</v>
       </c>
       <c r="F27" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5357,7 +5354,7 @@
         <v>1105</v>
       </c>
       <c r="F28" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5377,7 +5374,7 @@
         <v>1105</v>
       </c>
       <c r="F29" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5394,10 +5391,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5417,7 +5414,7 @@
         <v>1105</v>
       </c>
       <c r="F31" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5437,7 +5434,7 @@
         <v>1105</v>
       </c>
       <c r="F32" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,7 +5454,7 @@
         <v>1105</v>
       </c>
       <c r="F33" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5474,10 +5471,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5497,7 +5494,7 @@
         <v>1105</v>
       </c>
       <c r="F35" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5517,7 +5514,7 @@
         <v>1105</v>
       </c>
       <c r="F36" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5537,7 +5534,7 @@
         <v>1105</v>
       </c>
       <c r="F37" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5557,7 +5554,7 @@
         <v>1105</v>
       </c>
       <c r="F38" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5577,7 +5574,7 @@
         <v>1105</v>
       </c>
       <c r="F39" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,7 +5594,7 @@
         <v>1105</v>
       </c>
       <c r="F40" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5617,7 +5614,7 @@
         <v>1105</v>
       </c>
       <c r="F41" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5637,7 +5634,7 @@
         <v>1105</v>
       </c>
       <c r="F42" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5657,7 +5654,7 @@
         <v>1105</v>
       </c>
       <c r="F43" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5677,7 +5674,7 @@
         <v>1105</v>
       </c>
       <c r="F44" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5697,7 +5694,7 @@
         <v>1105</v>
       </c>
       <c r="F45" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5717,7 +5714,7 @@
         <v>1105</v>
       </c>
       <c r="F46" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5737,7 +5734,7 @@
         <v>1105</v>
       </c>
       <c r="F47" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -5757,7 +5754,7 @@
         <v>1105</v>
       </c>
       <c r="F48" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5777,7 +5774,7 @@
         <v>1105</v>
       </c>
       <c r="F49" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,7 +5791,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="F50" t="s">
         <v>1107</v>
@@ -5817,7 +5814,7 @@
         <v>1105</v>
       </c>
       <c r="F51" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -5834,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F52" t="s">
         <v>1107</v>
@@ -5857,7 +5854,7 @@
         <v>1105</v>
       </c>
       <c r="F53" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5877,7 +5874,7 @@
         <v>1105</v>
       </c>
       <c r="F54" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,7 +5894,7 @@
         <v>1105</v>
       </c>
       <c r="F55" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5917,7 +5914,7 @@
         <v>1105</v>
       </c>
       <c r="F56" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5937,7 +5934,7 @@
         <v>1105</v>
       </c>
       <c r="F57" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -5957,7 +5954,7 @@
         <v>1105</v>
       </c>
       <c r="F58" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5977,7 +5974,7 @@
         <v>1105</v>
       </c>
       <c r="F59" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,7 +5991,7 @@
         <v>1105</v>
       </c>
       <c r="F60" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -6031,7 +6028,7 @@
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="F62" t="s">
         <v>1127</v>
@@ -6248,7 +6245,7 @@
         <v>161</v>
       </c>
       <c r="E73" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>128</v>
@@ -6571,7 +6568,7 @@
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F89" t="s">
         <v>151</v>
@@ -6614,7 +6611,7 @@
         <v>161</v>
       </c>
       <c r="F91" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -6697,7 +6694,7 @@
         <v>154</v>
       </c>
       <c r="G95" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6748,7 +6745,7 @@
         <v>161</v>
       </c>
       <c r="E98" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F98" t="s">
         <v>154</v>
@@ -6768,7 +6765,7 @@
         <v>161</v>
       </c>
       <c r="E99" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="F99" t="s">
         <v>154</v>
@@ -6996,7 +6993,7 @@
         <v>161</v>
       </c>
       <c r="E111" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="F111" t="s">
         <v>138</v>
@@ -7033,7 +7030,7 @@
         <v>161</v>
       </c>
       <c r="E113" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="F113" t="s">
         <v>1127</v>
@@ -7056,7 +7053,7 @@
         <v>153</v>
       </c>
       <c r="F114" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -7073,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="F115" t="s">
         <v>138</v>
@@ -7150,7 +7147,7 @@
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -7339,10 +7336,10 @@
         <v>104</v>
       </c>
       <c r="F128" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G128" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,7 +7399,7 @@
         <v>218</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7439,7 +7436,7 @@
         <v>218</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -7456,7 +7453,7 @@
         <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F134" t="s">
         <v>220</v>
@@ -7479,7 +7476,7 @@
         <v>218</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -7519,7 +7516,7 @@
         <v>218</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -7779,7 +7776,7 @@
         <v>592</v>
       </c>
       <c r="F150" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -7839,10 +7836,10 @@
         <v>218</v>
       </c>
       <c r="F153" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G153" t="s">
         <v>1302</v>
-      </c>
-      <c r="G153" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -7850,7 +7847,7 @@
         <v>278</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D154" t="s">
         <v>9</v>
@@ -7913,7 +7910,7 @@
         <v>218</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -7981,7 +7978,7 @@
         <v>218</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -7995,7 +7992,7 @@
         <v>218</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -8009,7 +8006,7 @@
         <v>218</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -8023,7 +8020,7 @@
         <v>218</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -8057,7 +8054,7 @@
         <v>218</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,7 +8171,7 @@
         <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="F172" t="s">
         <v>255</v>
@@ -8234,10 +8231,10 @@
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="F175" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -8314,7 +8311,7 @@
         <v>9</v>
       </c>
       <c r="E179" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="F179" t="s">
         <v>138</v>
@@ -8377,7 +8374,7 @@
         <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="F182" t="s">
         <v>324</v>
@@ -8397,7 +8394,7 @@
         <v>104</v>
       </c>
       <c r="F183" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -8434,7 +8431,7 @@
         <v>161</v>
       </c>
       <c r="E185" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F185" t="s">
         <v>331</v>
@@ -8494,10 +8491,10 @@
         <v>161</v>
       </c>
       <c r="E188" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F188" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -8514,7 +8511,7 @@
         <v>161</v>
       </c>
       <c r="E189" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="F189" t="s">
         <v>331</v>
@@ -8554,10 +8551,10 @@
         <v>161</v>
       </c>
       <c r="E191" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="F191" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -8574,10 +8571,10 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F192" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -8691,13 +8688,13 @@
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F198" t="s">
         <v>331</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -8714,10 +8711,10 @@
         <v>161</v>
       </c>
       <c r="E199" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="F199" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -8751,7 +8748,7 @@
         <v>161</v>
       </c>
       <c r="E201" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="F201" t="s">
         <v>1123</v>
@@ -8811,13 +8808,13 @@
         <v>161</v>
       </c>
       <c r="E204" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F204" t="s">
         <v>321</v>
       </c>
       <c r="G204" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -8834,13 +8831,13 @@
         <v>161</v>
       </c>
       <c r="E205" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F205" t="s">
         <v>321</v>
       </c>
       <c r="G205" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -8857,13 +8854,13 @@
         <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="F206" t="s">
         <v>331</v>
       </c>
       <c r="G206" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -8886,7 +8883,7 @@
         <v>366</v>
       </c>
       <c r="G207" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -8909,7 +8906,7 @@
         <v>331</v>
       </c>
       <c r="G208" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -8929,7 +8926,7 @@
         <v>365</v>
       </c>
       <c r="F209" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -8946,7 +8943,7 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F210" t="s">
         <v>366</v>
@@ -8957,7 +8954,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>280</v>
@@ -8968,7 +8965,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>280</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>280</v>
@@ -8988,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F213" t="s">
         <v>366</v>
@@ -9177,7 +9174,7 @@
         <v>383</v>
       </c>
       <c r="E222" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F222" t="s">
         <v>314</v>
@@ -9263,7 +9260,7 @@
         <v>383</v>
       </c>
       <c r="E226" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F226" t="s">
         <v>250</v>
@@ -9698,7 +9695,7 @@
         <v>1124</v>
       </c>
       <c r="F247" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -9855,7 +9852,7 @@
         <v>9</v>
       </c>
       <c r="E255" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F255" t="s">
         <v>68</v>
@@ -10035,7 +10032,7 @@
         <v>468</v>
       </c>
       <c r="F264" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -10166,10 +10163,10 @@
         <v>161</v>
       </c>
       <c r="E271" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="F271" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -10243,7 +10240,7 @@
         <v>161</v>
       </c>
       <c r="E275" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="F275" t="s">
         <v>1114</v>
@@ -10446,7 +10443,7 @@
         <v>501</v>
       </c>
       <c r="F285" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -10571,7 +10568,7 @@
         <v>439</v>
       </c>
       <c r="E292" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F292" t="s">
         <v>1107</v>
@@ -10631,7 +10628,7 @@
         <v>104</v>
       </c>
       <c r="F295" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -10668,7 +10665,7 @@
         <v>104</v>
       </c>
       <c r="F297" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -10762,7 +10759,7 @@
         <v>104</v>
       </c>
       <c r="F302" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -10779,7 +10776,7 @@
         <v>104</v>
       </c>
       <c r="F303" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
@@ -10876,7 +10873,7 @@
         <v>104</v>
       </c>
       <c r="F308" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -10896,7 +10893,7 @@
         <v>104</v>
       </c>
       <c r="F309" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -10913,7 +10910,7 @@
         <v>104</v>
       </c>
       <c r="F310" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -10930,7 +10927,7 @@
         <v>104</v>
       </c>
       <c r="F311" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,7 +11041,7 @@
         <v>545</v>
       </c>
       <c r="F317" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
@@ -11061,7 +11058,7 @@
         <v>545</v>
       </c>
       <c r="F318" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
@@ -11098,7 +11095,7 @@
         <v>545</v>
       </c>
       <c r="F320" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
@@ -11283,7 +11280,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B330" t="s">
         <v>95</v>
@@ -11343,7 +11340,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B333" t="s">
         <v>64</v>
@@ -11355,7 +11352,7 @@
         <v>9</v>
       </c>
       <c r="E333" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F333" t="s">
         <v>1127</v>
@@ -11435,7 +11432,7 @@
         <v>7</v>
       </c>
       <c r="F337" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -11626,10 +11623,10 @@
         <v>9</v>
       </c>
       <c r="E347" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F347" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -11923,7 +11920,7 @@
         <v>9</v>
       </c>
       <c r="E362" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F362" t="s">
         <v>598</v>
@@ -12052,7 +12049,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>622</v>
       </c>
@@ -12072,7 +12069,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>624</v>
       </c>
@@ -12092,7 +12089,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>626</v>
       </c>
@@ -12112,7 +12109,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>628</v>
       </c>
@@ -12131,11 +12128,8 @@
       <c r="F372" t="s">
         <v>629</v>
       </c>
-      <c r="G372" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>630</v>
       </c>
@@ -12149,13 +12143,13 @@
         <v>9</v>
       </c>
       <c r="E373" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="F373" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>632</v>
       </c>
@@ -12175,7 +12169,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>633</v>
       </c>
@@ -12186,7 +12180,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>634</v>
       </c>
@@ -12206,7 +12200,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>636</v>
       </c>
@@ -12226,7 +12220,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>639</v>
       </c>
@@ -12246,7 +12240,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>642</v>
       </c>
@@ -12266,7 +12260,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>645</v>
       </c>
@@ -12286,7 +12280,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>648</v>
       </c>
@@ -12306,7 +12300,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>650</v>
       </c>
@@ -12326,7 +12320,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>652</v>
       </c>
@@ -12346,7 +12340,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>654</v>
       </c>
@@ -12486,7 +12480,7 @@
         <v>1128</v>
       </c>
       <c r="F390" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="G390" s="2"/>
     </row>
@@ -12587,13 +12581,13 @@
         <v>161</v>
       </c>
       <c r="E395" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F395" t="s">
         <v>675</v>
       </c>
       <c r="G395" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -12610,13 +12604,13 @@
         <v>161</v>
       </c>
       <c r="E396" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F396" t="s">
         <v>675</v>
       </c>
       <c r="G396" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -12633,13 +12627,13 @@
         <v>161</v>
       </c>
       <c r="E397" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F397" t="s">
         <v>675</v>
       </c>
       <c r="G397" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -12662,7 +12656,7 @@
         <v>675</v>
       </c>
       <c r="G398" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -12679,10 +12673,10 @@
         <v>9</v>
       </c>
       <c r="E399" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="F399" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -12699,10 +12693,10 @@
         <v>9</v>
       </c>
       <c r="E400" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="F400" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -12739,13 +12733,13 @@
         <v>161</v>
       </c>
       <c r="E402" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="F402" t="s">
         <v>675</v>
       </c>
       <c r="G402" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -12768,7 +12762,7 @@
         <v>675</v>
       </c>
       <c r="G403" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -12785,13 +12779,13 @@
         <v>161</v>
       </c>
       <c r="E404" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="F404" t="s">
         <v>675</v>
       </c>
       <c r="G404" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -12808,13 +12802,13 @@
         <v>9</v>
       </c>
       <c r="E405" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F405" t="s">
         <v>675</v>
       </c>
       <c r="G405" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -12831,13 +12825,13 @@
         <v>161</v>
       </c>
       <c r="E406" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F406" t="s">
         <v>675</v>
       </c>
       <c r="G406" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -12854,13 +12848,13 @@
         <v>161</v>
       </c>
       <c r="E407" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F407" t="s">
         <v>675</v>
       </c>
       <c r="G407" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -12874,7 +12868,7 @@
         <v>439</v>
       </c>
       <c r="E408" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F408" t="s">
         <v>692</v>
@@ -12894,7 +12888,7 @@
         <v>9</v>
       </c>
       <c r="E409" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="F409" t="s">
         <v>675</v>
@@ -12966,7 +12960,7 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -12986,7 +12980,7 @@
         <v>698</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -13006,7 +13000,7 @@
         <v>698</v>
       </c>
       <c r="F414" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -13023,7 +13017,7 @@
         <v>161</v>
       </c>
       <c r="E415" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F415" t="s">
         <v>699</v>
@@ -13303,10 +13297,10 @@
         <v>383</v>
       </c>
       <c r="E429" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="F429" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -13349,7 +13343,7 @@
         <v>675</v>
       </c>
       <c r="G431" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13372,7 +13366,7 @@
         <v>675</v>
       </c>
       <c r="G432" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -13412,7 +13406,7 @@
         <v>1107</v>
       </c>
       <c r="G434" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -14012,13 +14006,13 @@
         <v>103</v>
       </c>
       <c r="E464" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="F464" t="s">
         <v>68</v>
       </c>
       <c r="G464" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -14055,7 +14049,7 @@
         <v>9</v>
       </c>
       <c r="E466" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F466" t="s">
         <v>68</v>
@@ -14241,10 +14235,10 @@
         <v>9</v>
       </c>
       <c r="E475" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F475" t="s">
         <v>1232</v>
-      </c>
-      <c r="F475" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -14467,7 +14461,7 @@
         <v>9</v>
       </c>
       <c r="E486" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F486" t="s">
         <v>788</v>
@@ -14507,7 +14501,7 @@
         <v>9</v>
       </c>
       <c r="E488" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F488" t="s">
         <v>788</v>
@@ -14567,7 +14561,7 @@
         <v>788</v>
       </c>
       <c r="G491" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -14584,13 +14578,13 @@
         <v>9</v>
       </c>
       <c r="E492" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F492" t="s">
         <v>788</v>
       </c>
       <c r="G492" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -14647,7 +14641,7 @@
         <v>9</v>
       </c>
       <c r="E495" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="F495" t="s">
         <v>788</v>
@@ -14690,10 +14684,10 @@
         <v>9</v>
       </c>
       <c r="E497" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F497" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -14707,10 +14701,10 @@
         <v>9</v>
       </c>
       <c r="E498" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F498" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -14867,7 +14861,7 @@
         <v>9</v>
       </c>
       <c r="E506" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F506" t="s">
         <v>14</v>
@@ -14887,7 +14881,7 @@
         <v>161</v>
       </c>
       <c r="E507" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F507" t="s">
         <v>250</v>
@@ -15024,7 +15018,7 @@
         <v>161</v>
       </c>
       <c r="E514" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F514" t="s">
         <v>250</v>
@@ -15215,7 +15209,7 @@
         <v>9</v>
       </c>
       <c r="E524" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="F524" t="s">
         <v>868</v>
@@ -15295,7 +15289,7 @@
         <v>680</v>
       </c>
       <c r="F528" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -15309,10 +15303,10 @@
         <v>233</v>
       </c>
       <c r="E529" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
@@ -15372,7 +15366,7 @@
         <v>161</v>
       </c>
       <c r="F532" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -15743,7 +15737,7 @@
         <v>9</v>
       </c>
       <c r="E551" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F551" t="s">
         <v>935</v>
@@ -15957,7 +15951,7 @@
         <v>1133</v>
       </c>
       <c r="F562" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -16131,7 +16125,7 @@
         <v>161</v>
       </c>
       <c r="E571" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F571" t="s">
         <v>749</v>
@@ -16268,7 +16262,7 @@
         <v>9</v>
       </c>
       <c r="E578" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F578" t="s">
         <v>68</v>
@@ -16288,7 +16282,7 @@
         <v>9</v>
       </c>
       <c r="E579" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F579" t="s">
         <v>519</v>
@@ -16525,13 +16519,13 @@
         <v>218</v>
       </c>
       <c r="E591" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F591" s="9" t="s">
         <v>68</v>
       </c>
       <c r="G591" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="592" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -16548,7 +16542,7 @@
         <v>9</v>
       </c>
       <c r="E592" s="9" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F592" s="9" t="s">
         <v>68</v>
@@ -16568,7 +16562,7 @@
         <v>9</v>
       </c>
       <c r="E593" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F593" s="9" t="s">
         <v>68</v>
@@ -16588,7 +16582,7 @@
         <v>161</v>
       </c>
       <c r="E594" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F594" t="s">
         <v>68</v>
@@ -16611,7 +16605,7 @@
         <v>161</v>
       </c>
       <c r="E595" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>992</v>
@@ -16628,7 +16622,7 @@
         <v>161</v>
       </c>
       <c r="E596" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>992</v>
@@ -16648,7 +16642,7 @@
         <v>161</v>
       </c>
       <c r="E597" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>992</v>
@@ -16669,10 +16663,10 @@
         <v>9</v>
       </c>
       <c r="E598" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F598" t="s">
         <v>1282</v>
-      </c>
-      <c r="F598" t="s">
-        <v>1283</v>
       </c>
       <c r="G598" s="2"/>
     </row>
@@ -16687,7 +16681,7 @@
         <v>9</v>
       </c>
       <c r="E599" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F599" t="s">
         <v>1146</v>
@@ -16761,10 +16755,10 @@
         <v>233</v>
       </c>
       <c r="E603" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F603" t="s">
         <v>1223</v>
-      </c>
-      <c r="F603" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -16932,7 +16926,7 @@
         <v>9</v>
       </c>
       <c r="E612" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F612" t="s">
         <v>1107</v>
@@ -17023,10 +17017,10 @@
         <v>9</v>
       </c>
       <c r="E617" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F617" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -17294,7 +17288,7 @@
         <v>9</v>
       </c>
       <c r="E631" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F631" t="s">
         <v>1045</v>
@@ -17331,7 +17325,7 @@
         <v>161</v>
       </c>
       <c r="F633" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -17482,7 +17476,7 @@
         <v>153</v>
       </c>
       <c r="F641" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
@@ -17496,7 +17490,7 @@
         <v>9</v>
       </c>
       <c r="E642" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F642" t="s">
         <v>1107</v>
@@ -17564,7 +17558,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C646" s="6" t="s">
         <v>840</v>

--- a/input_sheets/snake_species_ecology_discrete.xlsx
+++ b/input_sheets/snake_species_ecology_discrete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riley\Documents\GitHub\snakejaws\input_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BF159B-E2CA-4094-ABA4-604C0B7E89F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3DAA3D-75A3-483A-BCE5-C15548B0FDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4787,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G372" sqref="G372"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScale="154" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I372" sqref="I372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
